--- a/src/private/templates/reports_suppliers.xlsx
+++ b/src/private/templates/reports_suppliers.xlsx
@@ -32,9 +32,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Sap Number</t>
-  </si>
-  <si>
     <t>Company name/ in English/</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Supplier  report</t>
+  </si>
+  <si>
+    <t>Vendor Number</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="164" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -509,97 +509,97 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
